--- a/FinalResult.xlsx
+++ b/FinalResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2074BC1-B7D5-4257-BEE4-CE15C44E0503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54981E3D-6C26-4D55-9155-EBE3B332D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1965" windowWidth="20580" windowHeight="11340" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
+    <workbookView xWindow="2175" yWindow="1080" windowWidth="20580" windowHeight="11340" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>Model</t>
   </si>
@@ -234,13 +234,76 @@
   </si>
   <si>
     <t>{'n_components': 180.0, 'n_estimators': 100.0, 'max_depth': 3.0, 'learning_rate': 0.3, 'accuracy': 0.9030508474576272, 'precision': 0.7933333333333333, 'recall': 0.5777777777777778, 'f1': 0.6506605881218884, 'mcc': 0.6165584550314602}</t>
+  </si>
+  <si>
+    <t>SVM(Threshold+Smote)</t>
+  </si>
+  <si>
+    <t>SVM(regular)</t>
+  </si>
+  <si>
+    <t>SVM with PCA</t>
+  </si>
+  <si>
+    <t>SVM(Thrshold)</t>
+  </si>
+  <si>
+    <t>SVM(SMOTE)</t>
+  </si>
+  <si>
+    <t>SVM without PCA</t>
+  </si>
+  <si>
+    <t>SVM (Threshold)</t>
+  </si>
+  <si>
+    <t> 0.920273224</t>
+  </si>
+  <si>
+    <t>SVM (Regular)</t>
+  </si>
+  <si>
+    <t>0.9163276836158192</t>
+  </si>
+  <si>
+    <t>0.7670346320346321</t>
+  </si>
+  <si>
+    <t>0.6666666666666666</t>
+  </si>
+  <si>
+    <t>0.7023249299719888</t>
+  </si>
+  <si>
+    <t>0.6633984955446046</t>
+  </si>
+  <si>
+    <t>SVM(Threhold+Smote)</t>
+  </si>
+  <si>
+    <t>0.9096045197740116</t>
+  </si>
+  <si>
+    <t>0.7857142857142858</t>
+  </si>
+  <si>
+    <t>0.5777777777777777</t>
+  </si>
+  <si>
+    <t>0.6415934065934067</t>
+  </si>
+  <si>
+    <t>0.6166107728507816</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 191, 'C': 0.1, 'kernel': 'linear'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +338,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -329,13 +398,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="4" builtinId="30"/>
@@ -675,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31028914-FA6E-43D5-80A2-0461EDBCAA7F}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -787,23 +859,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>0.89960452000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.65354090399999998</v>
-      </c>
-      <c r="D6">
-        <v>0.82222222199999995</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.71085858599999996</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.67174867599999999</v>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,118 +1044,118 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>0.88621468926553604</v>
-      </c>
-      <c r="C17">
-        <v>0.69111111111111101</v>
-      </c>
-      <c r="D17">
-        <v>0.48888888888888798</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.55171261487050904</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.51157554237605196</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>0.90621468926553606</v>
+        <v>0.88621468926553604</v>
       </c>
       <c r="C18">
-        <v>0.869999999999999</v>
+        <v>0.69111111111111101</v>
       </c>
       <c r="D18">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.58681318681318595</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.57989411070249397</v>
+        <v>0.48888888888888798</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.55171261487050904</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.51157554237605196</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>0.89615819209039504</v>
+        <v>0.90621468926553606</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>0.869999999999999</v>
       </c>
       <c r="D19">
-        <v>0.422222222222222</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.52884615384615297</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.50893576581655098</v>
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.58681318681318595</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.57989411070249397</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>0.92615819209039496</v>
+        <v>0.89615819209039504</v>
       </c>
       <c r="C20">
-        <v>0.82222222222222197</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.73300653594771203</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.69788899484292</v>
+        <v>0.422222222222222</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.52884615384615297</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.50893576581655098</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>0.90960451977401102</v>
+      </c>
+      <c r="C21">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="D21">
+        <v>0.57777777777777695</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.64159340659340602</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.61661077285078103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.922937853107344</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.96</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.51111111111111096</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>0.64987012987012904</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>0.65901917473646798</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1483,13 +1555,198 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>0.89960452000000002</v>
+      </c>
+      <c r="C53">
+        <v>0.65354090399999998</v>
+      </c>
+      <c r="D53">
+        <v>0.82222222199999995</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.71085858599999996</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.67174867599999999</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>0.91299435028248499</v>
+      </c>
+      <c r="C55">
+        <v>0.73337662337662302</v>
+      </c>
+      <c r="D55">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.69394957983193195</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.65509627137798998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>0.92305084699999995</v>
+      </c>
+      <c r="C56">
+        <v>0.84166666700000003</v>
+      </c>
+      <c r="D56">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.69152337900000005</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.66700171500000005</v>
+      </c>
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>0.90293785310734398</v>
+      </c>
+      <c r="C61">
+        <v>0.79935064935064903</v>
+      </c>
+      <c r="D61">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.59016483516483498</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.57642662848550996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>0.90632768361581895</v>
+      </c>
+      <c r="C62">
+        <v>0.72428571428571398</v>
+      </c>
+      <c r="D62">
+        <v>0.64444444444444404</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.665977443609022</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.62410424917313201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.83928571399999996</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.61111111100000004</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.69637413699999995</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.66915933800000005</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A26:M31" xr:uid="{31028914-FA6E-43D5-80A2-0461EDBCAA7F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:M31">
     <sortCondition ref="A27:A31"/>
   </sortState>

--- a/FinalResult.xlsx
+++ b/FinalResult.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54981E3D-6C26-4D55-9155-EBE3B332D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEBD0AE-26AB-4C50-BBF4-665F3E17BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1080" windowWidth="20580" windowHeight="11340" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$26:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$24:$M$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Model</t>
   </si>
@@ -71,9 +71,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>{'pca__n_components': 180, 'kernel': 'rbf', 'C': 10.0, 'threshold': 0.1, 'accuracy': 0.8996045197740112, 'precision': 0.6535409035409036, 'recall': 0.8222222222222222, 'f1': 0.7108585858585859, 'mcc': 0.6717486762823186}</t>
-  </si>
-  <si>
     <t>XGB</t>
   </si>
   <si>
@@ -119,63 +116,33 @@
     <t>equal Decision Tree</t>
   </si>
   <si>
-    <t>{'pca_n_components': 50, 'criterion': 'gini', 'max_depth': 100.0, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
     <t>equal KNN</t>
   </si>
   <si>
-    <t>{'pca_n_components': 64, 'n_neighbors': 7, 'metric': 'euclidean', 'weights': 'distance'}</t>
-  </si>
-  <si>
     <t>equal Random Forest</t>
   </si>
   <si>
-    <t>{'pca_n_components': 64, 'n_estimators': 100, 'max_depth': 30, 'min_samples_split': 2, 'min_samples_leaf': 2, 'criterion': 'entropy'}</t>
-  </si>
-  <si>
     <t>equal SVM</t>
   </si>
   <si>
-    <t>{'pca_n_components': 50, 'C': 0.1, 'kernel': 'linear'}</t>
-  </si>
-  <si>
     <t>equal XGBoost</t>
   </si>
   <si>
-    <t>{'pca_n_components': 57.0, 'learning_rate': 0.01, 'max_depth': 5.0, 'n_estimators': 300.0}</t>
-  </si>
-  <si>
     <t>not equal Decision Tree</t>
   </si>
   <si>
-    <t>{'pca_n_components': 167, 'criterion': 'entropy', 'max_depth': 10.0, 'min_samples_split': 5, 'min_samples_leaf': 1, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
     <t>not equal KNN</t>
   </si>
   <si>
-    <t>{'pca_n_components': 167, 'n_neighbors': 5, 'metric': 'cosine', 'weights': 'distance'}</t>
-  </si>
-  <si>
     <t>not equal Random Forest</t>
   </si>
   <si>
-    <t>{'pca_n_components': 167, 'n_estimators': 10, 'max_depth': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'criterion': 'gini'}</t>
-  </si>
-  <si>
     <t>not equal SVM</t>
   </si>
   <si>
-    <t>{'pca_n_components': 167, 'C': 0.01, 'kernel': 'linear'}</t>
-  </si>
-  <si>
     <t>not equal XGBoost</t>
   </si>
   <si>
-    <t>{'pca_n_components': 167.0, 'learning_rate': 0.5, 'max_depth': 3.0, 'n_estimators': 100.0}</t>
-  </si>
-  <si>
     <t>Threshold only</t>
   </si>
   <si>
@@ -236,51 +203,9 @@
     <t>{'n_components': 180.0, 'n_estimators': 100.0, 'max_depth': 3.0, 'learning_rate': 0.3, 'accuracy': 0.9030508474576272, 'precision': 0.7933333333333333, 'recall': 0.5777777777777778, 'f1': 0.6506605881218884, 'mcc': 0.6165584550314602}</t>
   </si>
   <si>
-    <t>SVM(Threshold+Smote)</t>
-  </si>
-  <si>
-    <t>SVM(regular)</t>
-  </si>
-  <si>
-    <t>SVM with PCA</t>
-  </si>
-  <si>
-    <t>SVM(Thrshold)</t>
-  </si>
-  <si>
-    <t>SVM(SMOTE)</t>
-  </si>
-  <si>
-    <t>SVM without PCA</t>
-  </si>
-  <si>
-    <t>SVM (Threshold)</t>
-  </si>
-  <si>
-    <t> 0.920273224</t>
-  </si>
-  <si>
-    <t>SVM (Regular)</t>
-  </si>
-  <si>
-    <t>0.9163276836158192</t>
-  </si>
-  <si>
-    <t>0.7670346320346321</t>
-  </si>
-  <si>
     <t>0.6666666666666666</t>
   </si>
   <si>
-    <t>0.7023249299719888</t>
-  </si>
-  <si>
-    <t>0.6633984955446046</t>
-  </si>
-  <si>
-    <t>SVM(Threhold+Smote)</t>
-  </si>
-  <si>
     <t>0.9096045197740116</t>
   </si>
   <si>
@@ -297,6 +222,165 @@
   </si>
   <si>
     <t>{'pca_n_components': 191, 'C': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t>5-fold</t>
+  </si>
+  <si>
+    <t>0.6862745098039216</t>
+  </si>
+  <si>
+    <t>0.6565168165168165</t>
+  </si>
+  <si>
+    <t>0.8444444444444443</t>
+  </si>
+  <si>
+    <t>0.7274242424242423</t>
+  </si>
+  <si>
+    <t>0.4039940487578605</t>
+  </si>
+  <si>
+    <t>{'criterion': 'gini', 'max_depth': 20, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>0.7294117647058823</t>
+  </si>
+  <si>
+    <t>0.8761904761904763</t>
+  </si>
+  <si>
+    <t>0.5555555555555556</t>
+  </si>
+  <si>
+    <t>0.5037701173300855</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 65, 'n_neighbors': 7, 'metric': 'euclidean', 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>0.8209150326797385</t>
+  </si>
+  <si>
+    <t>0.8806349206349207</t>
+  </si>
+  <si>
+    <t>0.7555555555555554</t>
+  </si>
+  <si>
+    <t>0.8061988304093568</t>
+  </si>
+  <si>
+    <t>0.6572794638679582</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 100, 'max_depth': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'criterion': 'entropy'}</t>
+  </si>
+  <si>
+    <t>0.8978571428571428</t>
+  </si>
+  <si>
+    <t>0.7777777777777778</t>
+  </si>
+  <si>
+    <t>0.8274148606811146</t>
+  </si>
+  <si>
+    <t>0.6995734256902948</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 50, 'C': 0.01, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.8715668481548701</t>
+  </si>
+  <si>
+    <t>0.6016666666666668</t>
+  </si>
+  <si>
+    <t>0.5333333333333333</t>
+  </si>
+  <si>
+    <t>0.5576057791537667</t>
+  </si>
+  <si>
+    <t>0.4894531924416285</t>
+  </si>
+  <si>
+    <t>0.8889292196007259</t>
+  </si>
+  <si>
+    <t>0.8699999999999999</t>
+  </si>
+  <si>
+    <t>0.3555555555555555</t>
+  </si>
+  <si>
+    <t>0.4936063936063936</t>
+  </si>
+  <si>
+    <t>0.5050942905498512</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 180, 'n_neighbors': 3, 'metric': 'euclidean', 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>0.8886872353297036</t>
+  </si>
+  <si>
+    <t>0.2888888888888888</t>
+  </si>
+  <si>
+    <t>0.4188811188811189</t>
+  </si>
+  <si>
+    <t>0.4510881119035702</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 50, 'max_depth': 10, 'min_samples_split': 5, 'min_samples_leaf': 2, 'criterion': 'entropy'}</t>
+  </si>
+  <si>
+    <t>0.7677777777777778</t>
+  </si>
+  <si>
+    <t>0.7999999999999999</t>
+  </si>
+  <si>
+    <t>0.7728444085490794</t>
+  </si>
+  <si>
+    <t>0.5221696269663778</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 0.1, 'learning_rate': 3.0, 'max_depth': 200.0, 'n_estimators': 0.7633986928104575}</t>
+  </si>
+  <si>
+    <t>0.8619841269841271</t>
+  </si>
+  <si>
+    <t>0.6681943208174079</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 180, 'C': 100.0, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.4444444444444445</t>
+  </si>
+  <si>
+    <t>0.5609167303284951</t>
+  </si>
+  <si>
+    <t>0.5755240249770524</t>
+  </si>
+  <si>
+    <t>0.6648022402778224</t>
+  </si>
+  <si>
+    <t>{'pca_n_components': 0.1, 'learning_rate': 3.0, 'max_depth': 200.0, 'n_estimators': 0.902843315184513}</t>
   </si>
 </sst>
 </file>
@@ -398,7 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
@@ -408,6 +492,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="4" builtinId="30"/>
@@ -747,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31028914-FA6E-43D5-80A2-0461EDBCAA7F}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,12 +846,12 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -786,9 +874,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.96327683600000003</v>
@@ -806,10 +894,10 @@
         <v>0.85665159000000002</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -832,9 +920,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.95655367199999997</v>
@@ -852,35 +940,35 @@
         <v>0.83183061700000005</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.929830508</v>
@@ -898,857 +986,752 @@
         <v>0.71570491899999999</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="C12">
-        <v>0.72489177489177403</v>
-      </c>
-      <c r="D12">
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.80293995859213196</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.55753085465378305</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="C13">
-        <v>0.91555555555555501</v>
-      </c>
-      <c r="D13">
-        <v>0.62222222222222201</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.73269841269841196</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.592409398928463</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>0.84248366013071896</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.77284440854907899</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
-        <v>0.85555555555555496</v>
-      </c>
-      <c r="C14">
-        <v>0.95</v>
-      </c>
-      <c r="D14">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.81730769230769196</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.73208666951296397</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="C15">
-        <v>0.85419191919191895</v>
-      </c>
-      <c r="D15">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.86868249054007496</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.738984075454579</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>0.82222222222222197</v>
-      </c>
-      <c r="C16">
-        <v>0.81466089466089397</v>
-      </c>
-      <c r="D16">
-        <v>0.844444444444444</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.82461988304093503</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.65180486577480601</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>0.88621468926553604</v>
-      </c>
-      <c r="C18">
-        <v>0.69111111111111101</v>
-      </c>
-      <c r="D18">
-        <v>0.48888888888888798</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.55171261487050904</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.51157554237605196</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>0.90621468926553606</v>
-      </c>
-      <c r="C19">
-        <v>0.869999999999999</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.58681318681318595</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.57989411070249397</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>0.89615819209039504</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>0.75</v>
-      </c>
-      <c r="D20">
-        <v>0.422222222222222</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.52884615384615297</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.50893576581655098</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
+        <v>0.92008469449485797</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.68454715219421103</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>0.91</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>0.90960451977401102</v>
-      </c>
-      <c r="C21">
-        <v>0.78571428571428503</v>
-      </c>
-      <c r="D21">
-        <v>0.57777777777777695</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.64159340659340602</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.61661077285078103</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="J24" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>0.922937853107344</v>
-      </c>
-      <c r="C22">
-        <v>0.96</v>
-      </c>
-      <c r="D22">
-        <v>0.51111111111111096</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.64987012987012904</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.65901917473646798</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="K24" t="s">
         <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <v>0.85943502824858697</v>
+      </c>
+      <c r="D25">
+        <v>4.5464695386692497E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.514848484848484</v>
+      </c>
+      <c r="F25">
+        <v>0.17308707872852</v>
+      </c>
+      <c r="G25">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="H25">
+        <v>0.25579698740491802</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.49872033023735801</v>
+      </c>
+      <c r="J25">
+        <v>0.22345198229754401</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.42760929159908301</v>
+      </c>
+      <c r="L25">
+        <v>0.229956709392693</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.89293785310734397</v>
+      </c>
+      <c r="D26">
+        <v>4.8127170956238502E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.76444444444444404</v>
+      </c>
+      <c r="F26">
+        <v>0.24525119397904699</v>
+      </c>
+      <c r="G26">
+        <v>0.48888888888888798</v>
+      </c>
+      <c r="H26">
+        <v>0.23040490392586299</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.56288600288600199</v>
+      </c>
+      <c r="J26">
+        <v>0.208668845856296</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.53999009027886602</v>
+      </c>
+      <c r="L26">
+        <v>0.210041952813318</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C27">
-        <v>0.85943502824858697</v>
+        <v>0.88966101694915201</v>
       </c>
       <c r="D27">
-        <v>4.5464695386692497E-2</v>
+        <v>6.2962863606215003E-2</v>
       </c>
       <c r="E27">
-        <v>0.514848484848484</v>
+        <v>0.69333333333333302</v>
       </c>
       <c r="F27">
-        <v>0.17308707872852</v>
+        <v>0.25292730620125198</v>
       </c>
       <c r="G27">
-        <v>0.51111111111111096</v>
+        <v>0.6</v>
       </c>
       <c r="H27">
-        <v>0.25579698740491802</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.49872033023735801</v>
+        <v>0.27888667551135798</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.60909627008698197</v>
       </c>
       <c r="J27">
-        <v>0.22345198229754401</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.42760929159908301</v>
+        <v>0.20744871577670501</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.568101048848908</v>
       </c>
       <c r="L27">
-        <v>0.229956709392693</v>
+        <v>0.239250877464696</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.2</v>
       </c>
       <c r="C28">
-        <v>0.89293785310734397</v>
+        <v>0.91299435028248499</v>
       </c>
       <c r="D28">
-        <v>4.8127170956238502E-2</v>
+        <v>5.2022287791065998E-2</v>
       </c>
       <c r="E28">
-        <v>0.76444444444444404</v>
+        <v>0.73337662337662302</v>
       </c>
       <c r="F28">
-        <v>0.24525119397904699</v>
+        <v>0.185300374274739</v>
       </c>
       <c r="G28">
-        <v>0.48888888888888798</v>
+        <v>0.688888888888888</v>
       </c>
       <c r="H28">
-        <v>0.23040490392586299</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.56288600288600199</v>
+        <v>0.25337231668869697</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.69394957983193195</v>
       </c>
       <c r="J28">
-        <v>0.208668845856296</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.53999009027886602</v>
+        <v>0.193136960367678</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.65509627137798998</v>
       </c>
       <c r="L28">
-        <v>0.210041952813318</v>
+        <v>0.218802835974962</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C29">
-        <v>0.88966101694915201</v>
+        <v>0.91299435028248499</v>
       </c>
       <c r="D29">
-        <v>6.2962863606215003E-2</v>
+        <v>4.7850305749805103E-2</v>
       </c>
       <c r="E29">
-        <v>0.69333333333333302</v>
+        <v>0.75666666666666604</v>
       </c>
       <c r="F29">
-        <v>0.25292730620125198</v>
+        <v>0.15347819244295099</v>
       </c>
       <c r="G29">
-        <v>0.6</v>
+        <v>0.62222222222222201</v>
       </c>
       <c r="H29">
-        <v>0.27888667551135798</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.60909627008698197</v>
+        <v>0.23040490392586299</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.67238684947663196</v>
       </c>
       <c r="J29">
-        <v>0.20744871577670501</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.568101048848908</v>
+        <v>0.17866504172790901</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.63374875978781697</v>
       </c>
       <c r="L29">
-        <v>0.239250877464696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>0.2</v>
-      </c>
-      <c r="C30">
-        <v>0.91299435028248499</v>
-      </c>
-      <c r="D30">
-        <v>5.2022287791065998E-2</v>
-      </c>
-      <c r="E30">
-        <v>0.73337662337662302</v>
-      </c>
-      <c r="F30">
-        <v>0.185300374274739</v>
-      </c>
-      <c r="G30">
-        <v>0.688888888888888</v>
-      </c>
-      <c r="H30">
-        <v>0.25337231668869697</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.69394957983193195</v>
-      </c>
-      <c r="J30">
-        <v>0.193136960367678</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.65509627137798998</v>
-      </c>
-      <c r="L30">
-        <v>0.218802835974962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31">
-        <v>0.1</v>
-      </c>
-      <c r="C31">
-        <v>0.91299435028248499</v>
-      </c>
-      <c r="D31">
-        <v>4.7850305749805103E-2</v>
-      </c>
-      <c r="E31">
-        <v>0.75666666666666604</v>
-      </c>
-      <c r="F31">
-        <v>0.15347819244295099</v>
-      </c>
-      <c r="G31">
-        <v>0.62222222222222201</v>
-      </c>
-      <c r="H31">
-        <v>0.23040490392586299</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.67238684947663196</v>
-      </c>
-      <c r="J31">
-        <v>0.17866504172790901</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.63374875978781697</v>
-      </c>
-      <c r="L31">
         <v>0.20220410931327501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>0.80949152499999999</v>
+      </c>
+      <c r="C34">
+        <v>0.41055555599999999</v>
+      </c>
+      <c r="D34">
+        <v>0.51111111099999995</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.44655039600000002</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.34373466499999999</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0.88644067800000004</v>
+      </c>
+      <c r="C35">
+        <v>0.65906593400000002</v>
+      </c>
+      <c r="D35">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.62179144399999997</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.56071420199999999</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>0.80949152499999999</v>
+        <v>0.89621468900000001</v>
       </c>
       <c r="C36">
-        <v>0.41055555599999999</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.51111111099999995</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.44655039600000002</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.34373466499999999</v>
+        <v>0.311111111</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.45558441599999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.512302696</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>0.88644067800000004</v>
+        <v>0.92305084699999995</v>
       </c>
       <c r="C37">
-        <v>0.65906593400000002</v>
+        <v>0.84166666700000003</v>
       </c>
       <c r="D37">
         <v>0.6</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.62179144399999997</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.56071420199999999</v>
+      <c r="E37" s="4">
+        <v>0.69152337900000005</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.66700171500000005</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>0.89621468900000001</v>
+        <v>0.90305084700000005</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.79333333299999997</v>
       </c>
       <c r="D38">
-        <v>0.311111111</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.45558441599999999</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.512302696</v>
+        <v>0.57777777799999996</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.65066058800000004</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.61655845499999995</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B39">
-        <v>0.92305084699999995</v>
-      </c>
-      <c r="C39">
-        <v>0.84166666700000003</v>
-      </c>
-      <c r="D39">
-        <v>0.6</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.69152337900000005</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.66700171500000005</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>0.90305084700000005</v>
-      </c>
-      <c r="C40">
-        <v>0.79333333299999997</v>
-      </c>
-      <c r="D40">
-        <v>0.57777777799999996</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0.65066058800000004</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.61655845499999995</v>
-      </c>
-      <c r="G40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53">
-        <v>0.89960452000000002</v>
-      </c>
-      <c r="C53">
-        <v>0.65354090399999998</v>
-      </c>
-      <c r="D53">
-        <v>0.82222222199999995</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.71085858599999996</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.67174867599999999</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" t="s">
-        <v>85</v>
-      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55">
-        <v>0.91299435028248499</v>
-      </c>
-      <c r="C55">
-        <v>0.73337662337662302</v>
-      </c>
-      <c r="D55">
-        <v>0.688888888888888</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0.69394957983193195</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0.65509627137798998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56">
-        <v>0.92305084699999995</v>
-      </c>
-      <c r="C56">
-        <v>0.84166666700000003</v>
-      </c>
-      <c r="D56">
-        <v>0.6</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0.69152337900000005</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.66700171500000005</v>
-      </c>
-      <c r="G56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61">
-        <v>0.90293785310734398</v>
-      </c>
-      <c r="C61">
-        <v>0.79935064935064903</v>
-      </c>
-      <c r="D61">
-        <v>0.51111111111111096</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0.59016483516483498</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0.57642662848550996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62">
-        <v>0.90632768361581895</v>
-      </c>
-      <c r="C62">
-        <v>0.72428571428571398</v>
-      </c>
-      <c r="D62">
-        <v>0.64444444444444404</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0.665977443609022</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0.62410424917313201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0.83928571399999996</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.61111111100000004</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0.69637413699999995</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0.66915933800000005</v>
-      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:M31">
-    <sortCondition ref="A27:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:M29">
+    <sortCondition ref="A25:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalResult.xlsx
+++ b/FinalResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2142636F-704A-4750-818D-BD4727B8EC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C709BEF4-952B-48E9-BE01-51F9BDA8978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="765" windowWidth="13890" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
+    <workbookView xWindow="7590" yWindow="1920" windowWidth="13890" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Decision tree</t>
-  </si>
-  <si>
-    <t>0.4444444444444445</t>
-  </si>
-  <si>
-    <t>0.5609167303284951</t>
   </si>
   <si>
     <t>Regular model -Balance</t>
@@ -570,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31028914-FA6E-43D5-80A2-0461EDBCAA7F}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +700,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,7 +825,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -936,11 +930,11 @@
       <c r="B28">
         <v>0.91</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>22</v>
+      <c r="C28" s="7">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.56100000000000005</v>
       </c>
       <c r="E28" s="12">
         <v>0.57599999999999996</v>

--- a/FinalResult.xlsx
+++ b/FinalResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C709BEF4-952B-48E9-BE01-51F9BDA8978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB623DE-E2AB-4D41-BDC5-5BADBB29CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="1920" windowWidth="13890" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
+    <workbookView xWindow="8385" yWindow="1920" windowWidth="17805" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -77,21 +77,6 @@
     <t>MCC</t>
   </si>
   <si>
-    <t>equal Decision Tree</t>
-  </si>
-  <si>
-    <t>equal KNN</t>
-  </si>
-  <si>
-    <t>equal Random Forest</t>
-  </si>
-  <si>
-    <t>equal SVM</t>
-  </si>
-  <si>
-    <t>equal XGBoost</t>
-  </si>
-  <si>
     <t>Threshold only</t>
   </si>
   <si>
@@ -108,6 +93,9 @@
   </si>
   <si>
     <t>Regular model -Imbalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XGBoost</t>
   </si>
 </sst>
 </file>
@@ -565,7 +553,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,59 +591,59 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.90300000000000002</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C3">
-        <v>0.66500000000000004</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D3">
-        <v>0.75600000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.70499999999999996</v>
+        <v>0.876</v>
       </c>
       <c r="F3">
-        <v>0.65100000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.91300000000000003</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C4">
-        <v>0.81299999999999994</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D4">
-        <v>0.57799999999999996</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E4" s="2">
-        <v>0.66300000000000003</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="F4">
-        <v>0.63500000000000001</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.94799999999999995</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C5">
-        <v>0.86399999999999999</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E5" s="3">
-        <v>0.82199999999999995</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="F5">
-        <v>0.79800000000000004</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,19 +651,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>0.92700000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="C6" s="7">
-        <v>0.78200000000000003</v>
+        <v>0.82</v>
       </c>
       <c r="D6" s="7">
-        <v>0.75600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="8">
-        <v>0.76</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F6" s="7">
-        <v>0.72299999999999998</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,24 +671,24 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="C7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="D7">
-        <v>0.77300000000000002</v>
-      </c>
       <c r="E7" s="5">
-        <v>0.74199999999999999</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="F7">
-        <v>0.70299999999999996</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,59 +716,59 @@
         <v>4</v>
       </c>
       <c r="B12" s="7">
-        <v>0.78900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C12" s="7">
-        <v>0.77100000000000002</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D12" s="7">
-        <v>0.84399999999999997</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E12" s="9">
-        <v>0.79800000000000004</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F12" s="7">
-        <v>0.59699999999999998</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7">
-        <v>0.74399999999999999</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C13" s="7">
-        <v>0.872</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D13" s="7">
-        <v>0.6</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="E13" s="10">
-        <v>0.69</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="F13" s="7">
-        <v>0.52600000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="7">
-        <v>0.86699999999999999</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="C14" s="7">
-        <v>0.93100000000000005</v>
+        <v>0.872</v>
       </c>
       <c r="D14" s="7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="11">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
       <c r="F14" s="7">
-        <v>0.751</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,27 +793,27 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
-        <v>0.73599999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="C16" s="7">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D16" s="7">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D16" s="7">
-        <v>0.76700000000000002</v>
-      </c>
       <c r="E16" s="12">
-        <v>0.53200000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="F16" s="7">
-        <v>0.504</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -845,67 +833,67 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B24" s="7">
-        <v>0.871</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C24" s="7">
-        <v>0.58499999999999996</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D24" s="7">
-        <v>0.622</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E24" s="9">
-        <v>0.58799999999999997</v>
+        <v>0.877</v>
       </c>
       <c r="F24" s="7">
-        <v>0.52400000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25" s="7">
-        <v>0.89200000000000002</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="C25" s="7">
-        <v>0.92</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D25" s="7">
-        <v>0.24399999999999999</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="E25" s="10">
-        <v>0.35599999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F25" s="7">
-        <v>0.40200000000000002</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B26" s="7">
-        <v>0.82199999999999995</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="D26" s="7">
-        <v>0.24399999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="E26" s="11">
-        <v>0.35599999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="F26" s="7">
-        <v>0.40200000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>0.92</v>
@@ -925,27 +913,27 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>0.91</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C28" s="7">
-        <v>0.44400000000000001</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D28" s="7">
-        <v>0.56100000000000005</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="E28" s="12">
-        <v>0.57599999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="F28" s="7">
-        <v>0.93100000000000005</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,59 +961,59 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>0.86499999999999999</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C34">
-        <v>0.625</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="D34">
-        <v>0.55600000000000005</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="E34" s="1">
-        <v>0.56599999999999995</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="F34">
-        <v>0.502</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>0.88900000000000001</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="C35">
-        <v>0.68600000000000005</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D35">
-        <v>0.57799999999999996</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E35" s="2">
-        <v>0.61299999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F35">
-        <v>0.56100000000000005</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>0.92700000000000005</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C36">
-        <v>0.82099999999999995</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D36">
-        <v>0.71099999999999997</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="E36" s="3">
-        <v>0.751</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="F36">
-        <v>0.71799999999999997</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,7 +1038,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0.91700000000000004</v>
@@ -1070,7 +1058,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,62 +1083,62 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>0.872</v>
+        <v>0.875</v>
       </c>
       <c r="C43">
-        <v>0.61199999999999999</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D43">
-        <v>0.68899999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="E43" s="1">
-        <v>0.63500000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="F43">
-        <v>0.56899999999999995</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>0.879</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C44">
-        <v>0.61699999999999999</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D44">
-        <v>0.64400000000000002</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E44" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="F44">
-        <v>0.55100000000000005</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>0.94399999999999995</v>
+        <v>0.875</v>
       </c>
       <c r="C45">
-        <v>0.82399999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D45">
-        <v>0.82199999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="E45" s="3">
-        <v>0.82199999999999995</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="F45">
-        <v>0.78900000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,18 +1172,18 @@
         <v>0.871</v>
       </c>
       <c r="D47">
-        <v>0.6</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="E47" s="5">
-        <v>0.7</v>
+        <v>0.755</v>
       </c>
       <c r="F47">
-        <v>0.67700000000000005</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">

--- a/FinalResult.xlsx
+++ b/FinalResult.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB623DE-E2AB-4D41-BDC5-5BADBB29CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A9C18-E73C-4816-A485-E557C7D5DF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="1920" windowWidth="17805" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
+    <workbookView xWindow="7485" yWindow="1065" windowWidth="17805" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$33:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$28:$L$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t xml:space="preserve"> XGBoost</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OriginThreshold </t>
+  </si>
+  <si>
+    <t>0.6,0.7</t>
+  </si>
+  <si>
+    <t>OriginalThreshold</t>
+  </si>
+  <si>
+    <t>0.5-0.9</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31028914-FA6E-43D5-80A2-0461EDBCAA7F}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,12 +576,12 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -585,8 +600,14 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -605,8 +626,14 @@
       <c r="F3">
         <v>0.86299999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -625,8 +652,14 @@
       <c r="F4">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -645,8 +678,14 @@
       <c r="F5">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -665,8 +704,14 @@
       <c r="F6" s="7">
         <v>0.76800000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -685,13 +730,19 @@
       <c r="F7">
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -711,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -731,7 +782,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -739,19 +790,19 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="C13" s="7">
-        <v>0.88500000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D13" s="7">
         <v>0.91100000000000003</v>
       </c>
       <c r="E13" s="10">
-        <v>0.89300000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="F13" s="7">
-        <v>0.78800000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -771,7 +822,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -791,7 +842,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -811,415 +862,451 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.877</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.92</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.497</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.92</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.622</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="7">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.877</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="B29">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="C29">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C30">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D30">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F30">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.875</v>
+      </c>
+      <c r="C31">
+        <v>0.65</v>
+      </c>
+      <c r="D31">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F31">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.92</v>
+      </c>
+      <c r="C32">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.69</v>
+      </c>
+      <c r="G32">
+        <v>0.2</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>0.91</v>
+      </c>
+      <c r="C33">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C38">
+        <v>0.91999999999999904</v>
+      </c>
+      <c r="D38">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F38">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="7">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.79500000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B39">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C39">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F39">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="7">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="C26">
+      <c r="B40">
+        <v>0.875</v>
+      </c>
+      <c r="C40">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F40">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
         <v>0.92</v>
       </c>
-      <c r="D26" s="7">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.497</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C41">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D41">
+        <v>0.622</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F41">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0.92</v>
+      </c>
+      <c r="C42">
+        <v>0.871</v>
+      </c>
+      <c r="D42">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="F42">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>0.92</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="D27">
-        <v>0.622</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.57199999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="C34">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="D34">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="F34">
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="C35">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="D35">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F35">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="C36">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="D36">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F36">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="C37">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="D37">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.747</v>
-      </c>
-      <c r="F37">
-        <v>0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="C38">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="D38">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="F38">
-        <v>0.69099999999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43">
-        <v>0.875</v>
-      </c>
-      <c r="C43">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="D43">
-        <v>0.6</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F43">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="C44">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="D44">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F44">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>0.875</v>
-      </c>
-      <c r="C45">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="D45">
-        <v>0.6</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F45">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>0.92</v>
-      </c>
-      <c r="C46">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="D46">
-        <v>0.622</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="F46">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B47">
-        <v>0.92</v>
-      </c>
-      <c r="C47">
-        <v>0.871</v>
-      </c>
-      <c r="D47">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.755</v>
-      </c>
-      <c r="F47">
-        <v>0.72499999999999998</v>
-      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:L38">
-    <sortCondition ref="A34:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:L33">
+    <sortCondition ref="A29:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinalResult.xlsx
+++ b/FinalResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A9C18-E73C-4816-A485-E557C7D5DF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFB1980-0F03-4EB9-9A54-21DAB27A8994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="1065" windowWidth="17805" windowHeight="12780" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E69FEF2-CCF4-4F55-9C28-0EACB98F1DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">OriginThreshold </t>
   </si>
   <si>
-    <t>0.6,0.7</t>
-  </si>
-  <si>
     <t>OriginalThreshold</t>
   </si>
   <si>
     <t>0.5-0.9</t>
+  </si>
+  <si>
+    <t>0.6-0.9</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31028914-FA6E-43D5-80A2-0461EDBCAA7F}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,25 +1018,25 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>0.93100000000000005</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C29">
-        <v>0.73399999999999999</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D29">
-        <v>0.88900000000000001</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="E29" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="F29">
-        <v>0.76700000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="G29">
         <v>0.1</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
